--- a/DL/231001.xlsx
+++ b/DL/231001.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,26 @@
           <t>use_days</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>user_id</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>owner_id</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>park_id</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>resv_status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -517,7 +537,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3570062</t>
+          <t>3501255</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -527,7 +547,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>武蔵台四丁目-1-99</t>
+          <t>武蔵台２丁目２−２</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -551,6 +571,18 @@
       </c>
       <c r="L2" t="n">
         <v>27</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -571,7 +603,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3570062</t>
+          <t>3501255</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -581,7 +613,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>武蔵台三丁目-18-5</t>
+          <t>武蔵台3-18-5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -605,6 +637,18 @@
       </c>
       <c r="L3" t="n">
         <v>19</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -625,7 +669,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3570062</t>
+          <t>1234567</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -635,12 +679,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>武蔵台一丁目15-17</t>
+          <t>こま武蔵台7-7-7</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0429821234</t>
+          <t>09000001111</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -659,6 +703,18 @@
       </c>
       <c r="L4" t="n">
         <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -679,7 +735,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3570062</t>
+          <t>1830042</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -689,12 +745,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>武蔵台１丁目４７−１</t>
+          <t>武蔵台1-23-5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>99999999999</t>
+          <t>0704872020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -713,6 +769,18 @@
       </c>
       <c r="L5" t="n">
         <v>14</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DL/231001.xlsx
+++ b/DL/231001.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,40 +480,90 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>postal_code_Park</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>address1_Park</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>address2_Park</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>tel_Park</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>first_name_owner</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>last_name_owner</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>postal_code_owner</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>address1_owner</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>address2_owner</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>tel_owner</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>resv_at</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>use_start</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>use_end</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>use_days</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>owner_id</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>park_id</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>resv_status</t>
         </is>
@@ -560,28 +610,78 @@
           <t>鈴木邸駐車場</t>
         </is>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3570062</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>武蔵台四丁目-1-99</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>09033333333</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>太郎</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>鈴木</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3501255</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>武蔵台２丁目２−２</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>09033333333</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="n">
         <v>45153.81706697271</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="T2" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="U2" s="2" t="n">
         <v>45226.99998842592</v>
       </c>
-      <c r="L2" t="n">
+      <c r="V2" t="n">
         <v>27</v>
       </c>
-      <c r="M2" t="n">
+      <c r="W2" t="n">
         <v>3</v>
       </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Y2" t="n">
         <v>3</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Z2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -626,28 +726,78 @@
           <t>高橋邸駐車場</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3570062</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>武蔵台三丁目-18-5</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>09099998888</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>一郎</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>高橋</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>3501255</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>武蔵台3-18-5</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>09099998888</t>
+        </is>
+      </c>
+      <c r="S3" s="2" t="n">
         <v>45154.45685517685</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="T3" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="U3" s="2" t="n">
         <v>45218.99998842592</v>
       </c>
-      <c r="L3" t="n">
+      <c r="V3" t="n">
         <v>19</v>
       </c>
-      <c r="M3" t="n">
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
         <v>4</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Y3" t="n">
         <v>4</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -692,28 +842,78 @@
           <t>植田邸駐車場</t>
         </is>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3570062</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>武蔵台一丁目15-17</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0429821234</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>障子</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>植田</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3501255</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>武蔵台１－１－１</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0429821234</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="n">
         <v>45210.39237127797</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="T4" s="2" t="n">
         <v>45210</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="U4" s="2" t="n">
         <v>45210.99998842592</v>
       </c>
-      <c r="L4" t="n">
+      <c r="V4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="W4" t="n">
         <v>1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
         <v>5</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Y4" t="n">
         <v>5</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Z4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,28 +958,78 @@
           <t>山田邸駐車場</t>
         </is>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3570062</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>武蔵台１丁目４７−１</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>次郎</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>山田</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3501255</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>埼玉県日高市</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>武蔵台１丁目４７−１</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0429823904</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="n">
         <v>45215.95032002129</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="T5" s="2" t="n">
         <v>45217</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="U5" s="2" t="n">
         <v>45230.99998842592</v>
       </c>
-      <c r="L5" t="n">
+      <c r="V5" t="n">
         <v>14</v>
       </c>
-      <c r="M5" t="n">
+      <c r="W5" t="n">
         <v>8</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
         <v>2</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Y5" t="n">
         <v>2</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Z5" t="n">
         <v>1</v>
       </c>
     </row>
